--- a/data/case1/12/Plm2_14.xlsx
+++ b/data/case1/12/Plm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11648230076377786</v>
+        <v>-0.093312672893958393</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11592200283766374</v>
+        <v>0.092953307894433124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.003613572271310872</v>
+        <v>0.0079272795796541118</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.004564241990189899</v>
+        <v>-0.0086854678344554515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10749863359978917</v>
+        <v>0.11161918458608255</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10812528540824573</v>
+        <v>-0.11216596182085325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.17586845878746971</v>
+        <v>-0.17183040035058994</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17480182510068332</v>
+        <v>0.17089547005690164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16880182542861366</v>
+        <v>-0.1648954702180232</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16664968293305105</v>
+        <v>0.16301909625413469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.065763575542006514</v>
+        <v>-0.11637028851423414</v>
       </c>
       <c r="B6" s="0">
-        <v>0.065708883254700368</v>
+        <v>0.11617178088168512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.045708883657868071</v>
+        <v>-0.089212646473312063</v>
       </c>
       <c r="B7" s="0">
-        <v>0.045612113886448924</v>
+        <v>0.08876013459188492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.02561211429210708</v>
+        <v>-0.068760134796039374</v>
       </c>
       <c r="B8" s="0">
-        <v>0.025563850224765261</v>
+        <v>0.068369122305917074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.019563850570214036</v>
+        <v>-0.062369122479298156</v>
       </c>
       <c r="B9" s="0">
-        <v>0.019531147726539189</v>
+        <v>0.06203614621869491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013531148073603561</v>
+        <v>-0.056036146394937703</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013530872887415057</v>
+        <v>0.055986254014989356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0090308732279602566</v>
+        <v>-0.051486254187995684</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0090252492758153835</v>
+        <v>0.051404835196628085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.026118833776853645</v>
+        <v>-0.04540483537402551</v>
       </c>
       <c r="B12" s="0">
-        <v>0.026044213180489884</v>
+        <v>0.045155533660919733</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.020044213530895583</v>
+        <v>-0.039155533841342738</v>
       </c>
       <c r="B13" s="0">
-        <v>0.020028798412312199</v>
+        <v>0.039087503754398512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0080287987902121216</v>
+        <v>-0.027087503950284919</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0080264487035890397</v>
+        <v>0.027054406781561013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0020264490550712111</v>
+        <v>-0.02105440696363825</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0020260092634414306</v>
+        <v>0.0210283331670853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.020363368804698023</v>
+        <v>-0.015028333349822232</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.020445289292451818</v>
+        <v>0.015004764383160785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043356625209015</v>
+        <v>-0.0090047645667663545</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999996368810287</v>
+        <v>0.008999999808903425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.073542189485031884</v>
+        <v>-0.07843007609409014</v>
       </c>
       <c r="B18" s="0">
-        <v>0.073448301651446002</v>
+        <v>0.078338824029366094</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096962093647203</v>
+        <v>-0.06933882419702142</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013807412218593</v>
+        <v>0.068653930784832173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013807754442723</v>
+        <v>-0.059653930956772072</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004300952737751</v>
+        <v>0.059507938055736176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043012954303947</v>
+        <v>-0.050507938228614435</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999656984059</v>
+        <v>0.050315594525227159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093934391948373275</v>
+        <v>-0.093933716918867205</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093625610670132531</v>
+        <v>0.093624924964810674</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084625611011820645</v>
+        <v>-0.084624925133632622</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125077195643883</v>
+        <v>0.084125012960150514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125077689735058</v>
+        <v>-0.042125013211694373</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999503243401</v>
+        <v>0.041999999747050154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094886107730904001</v>
+        <v>-0.040648807906677575</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094644671027182881</v>
+        <v>0.04060918651581602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.08864467136830001</v>
+        <v>-0.034609186682882154</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088333764397322767</v>
+        <v>0.034564237965895472</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082333764740256665</v>
+        <v>-0.028564238133275133</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081271177918656345</v>
+        <v>0.028430778939081414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07527117826935914</v>
+        <v>-0.022430779107687648</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074534890840496359</v>
+        <v>0.022352497218418144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062534891223153366</v>
+        <v>-0.010352497402262628</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062169659987681314</v>
+        <v>0.01032974602634873</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042169660408443832</v>
+        <v>-0.042163194840339813</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020007347462585</v>
+        <v>0.042019725374669026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02702000774953639</v>
+        <v>-0.02701972556765142</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000883293361255</v>
+        <v>0.027000991926239948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008837228222589</v>
+        <v>-0.0060009921340329342</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999996371642439</v>
+        <v>0.0059999998284183675</v>
       </c>
     </row>
   </sheetData>
